--- a/biology/Microbiologie/Leptotrichiaceae/Leptotrichiaceae.xlsx
+++ b/biology/Microbiologie/Leptotrichiaceae/Leptotrichiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Leptotrichiaceae sont une famille de bacilles Gram négatifs de l'ordre des Fusobacteriales. Son nom provient de Leptotrichia qui est le genre type de cette famille.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est proposée en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[2]. Elle est validée la même année par une publication dans l'IJSEM[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est proposée en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle est validée la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (18 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (18 novembre 2022) :
 Caviibacter Eisenberg et al. 2016
 Leptotrichia Trevisan 1879 – genre type
 Oceanivirga Eisenberg et al. 2016
